--- a/resource/Dict/unit.xlsx
+++ b/resource/Dict/unit.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\narmnarmz-tools\resource\Dict\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Unit" sheetId="1" r:id="rId1"/>
@@ -5885,7 +5890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -5898,6 +5903,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5907,6 +5915,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5955,7 +5966,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5990,7 +6001,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6201,7 +6212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+    <sheetView topLeftCell="A382" workbookViewId="0">
       <selection activeCell="G399" sqref="G399"/>
     </sheetView>
   </sheetViews>
@@ -16247,8 +16258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B255"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16266,7 +16277,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1512</v>
       </c>
       <c r="B2" t="s">
